--- a/anfavea_data_analysis.xlsx
+++ b/anfavea_data_analysis.xlsx
@@ -581,7 +581,7 @@
         <v>686</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>708</v>
       </c>
     </row>
     <row r="3">
@@ -644,7 +644,7 @@
         <v>1202</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="4">
@@ -707,7 +707,7 @@
         <v>152</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
@@ -770,7 +770,7 @@
         <v>2254</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="6">
@@ -833,7 +833,7 @@
         <v>355</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7">
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1022,7 +1022,7 @@
         <v>6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1085,7 +1085,7 @@
         <v>20464</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>20312</v>
       </c>
     </row>
     <row r="11">
@@ -1148,7 +1148,7 @@
         <v>12708</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>14849</v>
       </c>
     </row>
     <row r="12">
@@ -1211,7 +1211,7 @@
         <v>12587</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>14027</v>
       </c>
     </row>
     <row r="13">
@@ -1274,7 +1274,7 @@
         <v>35129</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>38645</v>
       </c>
     </row>
     <row r="14">
@@ -1337,7 +1337,7 @@
         <v>8931</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9646</v>
       </c>
     </row>
     <row r="15">
@@ -1400,7 +1400,7 @@
         <v>872</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>820</v>
       </c>
     </row>
     <row r="16">
@@ -1463,7 +1463,7 @@
         <v>227</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17">
@@ -1526,7 +1526,7 @@
         <v>17388</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>20257</v>
       </c>
     </row>
     <row r="18">
@@ -1589,7 +1589,7 @@
         <v>44</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -1652,7 +1652,7 @@
         <v>243</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20">
@@ -1715,7 +1715,7 @@
         <v>563</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>698</v>
       </c>
     </row>
     <row r="21">
@@ -1778,7 +1778,7 @@
         <v>4782</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="22">
@@ -1841,7 +1841,7 @@
         <v>1449</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="23">
@@ -1904,7 +1904,7 @@
         <v>1036</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>688</v>
       </c>
     </row>
     <row r="24">
@@ -1967,7 +1967,7 @@
         <v>11639</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>13828</v>
       </c>
     </row>
     <row r="25">
@@ -2030,7 +2030,7 @@
         <v>11762</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>12331</v>
       </c>
     </row>
     <row r="26">
@@ -2093,7 +2093,7 @@
         <v>42</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -2156,7 +2156,7 @@
         <v>31022</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>33458</v>
       </c>
     </row>
     <row r="28">
@@ -2219,7 +2219,7 @@
         <v>1983</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="29">
@@ -2282,7 +2282,7 @@
         <v>293</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30">
@@ -2408,7 +2408,7 @@
         <v>18981</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>19426</v>
       </c>
     </row>
     <row r="32">
@@ -2471,7 +2471,7 @@
         <v>2323</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="33">
@@ -2534,7 +2534,7 @@
         <v>4093</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="34">
@@ -2597,7 +2597,7 @@
         <v>901</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>695</v>
       </c>
     </row>
     <row r="35">
@@ -2660,7 +2660,7 @@
         <v>286</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36">
@@ -2786,7 +2786,7 @@
         <v>334</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38">
@@ -2849,7 +2849,7 @@
         <v>606</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>658</v>
       </c>
     </row>
     <row r="39">
@@ -2912,7 +2912,7 @@
         <v>735</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>957</v>
       </c>
     </row>
     <row r="40">
@@ -2975,7 +2975,7 @@
         <v>406</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
@@ -3038,7 +3038,7 @@
         <v>148</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42">
@@ -3101,7 +3101,7 @@
         <v>1174</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="43">
@@ -3164,7 +3164,7 @@
         <v>3050</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="44">
@@ -3227,7 +3227,7 @@
         <v>3322</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="45">
@@ -3290,7 +3290,7 @@
         <v>257</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46">
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -3416,7 +3416,7 @@
         <v>194</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
     </row>
     <row r="48">
@@ -3542,7 +3542,7 @@
         <v>66</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50">
@@ -3605,7 +3605,7 @@
         <v>50</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51">
@@ -3668,7 +3668,7 @@
         <v>208</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52">
@@ -3731,7 +3731,7 @@
         <v>3</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -3920,7 +3920,7 @@
         <v>2</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -3983,7 +3983,7 @@
         <v>25</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
@@ -4046,7 +4046,7 @@
         <v>3</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -4109,7 +4109,7 @@
         <v>85</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59">
@@ -4172,7 +4172,7 @@
         <v>340</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60">
@@ -4235,7 +4235,7 @@
         <v>408</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>533</v>
       </c>
     </row>
     <row r="61">
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -4361,7 +4361,7 @@
         <v>1</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -4487,7 +4487,7 @@
         <v>1</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -4550,7 +4550,7 @@
         <v>48</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66">
@@ -4613,7 +4613,7 @@
         <v>565</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>484</v>
       </c>
     </row>
     <row r="67">
@@ -4676,7 +4676,7 @@
         <v>254</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68">
@@ -4928,7 +4928,7 @@
         <v>3</v>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
@@ -4991,7 +4991,7 @@
         <v>183</v>
       </c>
       <c r="Q72" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73">
@@ -5054,7 +5054,7 @@
         <v>1264</v>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="74">
@@ -5117,7 +5117,7 @@
         <v>808</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>891</v>
       </c>
     </row>
     <row r="75">
@@ -5180,7 +5180,7 @@
         <v>2</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -5243,7 +5243,7 @@
         <v>194</v>
       </c>
       <c r="Q76" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -5369,7 +5369,7 @@
         <v>351</v>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
+        <v>286</v>
       </c>
     </row>
     <row r="79">
@@ -5495,7 +5495,7 @@
         <v>115</v>
       </c>
       <c r="Q80" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81">
@@ -5558,7 +5558,7 @@
         <v>279</v>
       </c>
       <c r="Q81" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82">
@@ -5684,7 +5684,7 @@
         <v>1425</v>
       </c>
       <c r="Q83" t="n">
-        <v>0</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="84">
@@ -5747,7 +5747,7 @@
         <v>1010</v>
       </c>
       <c r="Q84" t="n">
-        <v>0</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="85">
@@ -5810,7 +5810,7 @@
         <v>1248</v>
       </c>
       <c r="Q85" t="n">
-        <v>0</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="86">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -5936,7 +5936,7 @@
         <v>132</v>
       </c>
       <c r="Q87" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88">
@@ -5999,7 +5999,7 @@
         <v>140</v>
       </c>
       <c r="Q88" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89">
@@ -6062,7 +6062,7 @@
         <v>547</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90">
@@ -6125,7 +6125,7 @@
         <v>491</v>
       </c>
       <c r="Q90" t="n">
-        <v>0</v>
+        <v>359</v>
       </c>
     </row>
     <row r="91">
@@ -6188,7 +6188,7 @@
         <v>42</v>
       </c>
       <c r="Q91" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92">
@@ -6251,7 +6251,7 @@
         <v>12</v>
       </c>
       <c r="Q92" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93">
@@ -6314,7 +6314,7 @@
         <v>17</v>
       </c>
       <c r="Q93" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/anfavea_data_analysis.xlsx
+++ b/anfavea_data_analysis.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -548,40 +547,40 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>406</v>
+        <v>470</v>
       </c>
       <c r="G2" t="n">
-        <v>830</v>
+        <v>293</v>
       </c>
       <c r="H2" t="n">
-        <v>376</v>
+        <v>278</v>
       </c>
       <c r="I2" t="n">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="J2" t="n">
-        <v>256</v>
+        <v>381</v>
       </c>
       <c r="K2" t="n">
-        <v>669</v>
+        <v>308</v>
       </c>
       <c r="L2" t="n">
-        <v>595</v>
+        <v>445</v>
       </c>
       <c r="M2" t="n">
-        <v>661</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>785</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>858</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>686</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -611,40 +610,40 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>790</v>
+        <v>656</v>
       </c>
       <c r="G3" t="n">
-        <v>920</v>
+        <v>876</v>
       </c>
       <c r="H3" t="n">
-        <v>794</v>
+        <v>1234</v>
       </c>
       <c r="I3" t="n">
-        <v>293</v>
+        <v>1108</v>
       </c>
       <c r="J3" t="n">
-        <v>536</v>
+        <v>1293</v>
       </c>
       <c r="K3" t="n">
+        <v>1568</v>
+      </c>
+      <c r="L3" t="n">
         <v>1269</v>
       </c>
-      <c r="L3" t="n">
-        <v>1381</v>
-      </c>
       <c r="M3" t="n">
-        <v>1262</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1361</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1150</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1202</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -674,40 +673,40 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="G4" t="n">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="H4" t="n">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="I4" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="J4" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K4" t="n">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="L4" t="n">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="M4" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -737,40 +736,40 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1684</v>
+        <v>3131</v>
       </c>
       <c r="G5" t="n">
-        <v>1923</v>
+        <v>3302</v>
       </c>
       <c r="H5" t="n">
-        <v>1927</v>
+        <v>3171</v>
       </c>
       <c r="I5" t="n">
-        <v>422</v>
+        <v>3259</v>
       </c>
       <c r="J5" t="n">
-        <v>396</v>
+        <v>3045</v>
       </c>
       <c r="K5" t="n">
-        <v>1036</v>
+        <v>2914</v>
       </c>
       <c r="L5" t="n">
-        <v>1456</v>
+        <v>2115</v>
       </c>
       <c r="M5" t="n">
-        <v>1632</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2184</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1997</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2254</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -800,40 +799,40 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>525</v>
+        <v>269</v>
       </c>
       <c r="G6" t="n">
-        <v>497</v>
+        <v>866</v>
       </c>
       <c r="H6" t="n">
-        <v>500</v>
+        <v>630</v>
       </c>
       <c r="I6" t="n">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="J6" t="n">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="K6" t="n">
-        <v>401</v>
+        <v>255</v>
       </c>
       <c r="L6" t="n">
-        <v>699</v>
+        <v>45</v>
       </c>
       <c r="M6" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>498</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -863,37 +862,37 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="G7" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
-        <v>33</v>
-      </c>
       <c r="L7" t="n">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="M7" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -926,40 +925,40 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2</v>
-      </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -989,40 +988,40 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" t="n">
         <v>5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>4</v>
       </c>
-      <c r="K9" t="n">
-        <v>12</v>
-      </c>
       <c r="L9" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1052,40 +1051,40 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>13783</v>
+        <v>11484</v>
       </c>
       <c r="G10" t="n">
-        <v>15061</v>
+        <v>14193</v>
       </c>
       <c r="H10" t="n">
-        <v>13565</v>
+        <v>14605</v>
       </c>
       <c r="I10" t="n">
-        <v>3644</v>
+        <v>20203</v>
       </c>
       <c r="J10" t="n">
-        <v>4336</v>
+        <v>19713</v>
       </c>
       <c r="K10" t="n">
-        <v>8580</v>
+        <v>18601</v>
       </c>
       <c r="L10" t="n">
-        <v>12199</v>
+        <v>18681</v>
       </c>
       <c r="M10" t="n">
-        <v>15409</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>19251</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>19269</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>20464</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>20312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1115,40 +1114,40 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8666</v>
+        <v>11352</v>
       </c>
       <c r="G11" t="n">
-        <v>10086</v>
+        <v>8594</v>
       </c>
       <c r="H11" t="n">
-        <v>7576</v>
+        <v>10351</v>
       </c>
       <c r="I11" t="n">
-        <v>2262</v>
+        <v>10829</v>
       </c>
       <c r="J11" t="n">
-        <v>2577</v>
+        <v>12825</v>
       </c>
       <c r="K11" t="n">
-        <v>7370</v>
+        <v>11653</v>
       </c>
       <c r="L11" t="n">
-        <v>9569</v>
+        <v>10161</v>
       </c>
       <c r="M11" t="n">
-        <v>10465</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>11817</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>12218</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>12708</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>14849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1178,40 +1177,40 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>12793</v>
+        <v>256</v>
       </c>
       <c r="G12" t="n">
-        <v>13759</v>
+        <v>200</v>
       </c>
       <c r="H12" t="n">
-        <v>12840</v>
+        <v>258</v>
       </c>
       <c r="I12" t="n">
-        <v>3369</v>
+        <v>244</v>
       </c>
       <c r="J12" t="n">
-        <v>3021</v>
+        <v>256</v>
       </c>
       <c r="K12" t="n">
-        <v>6029</v>
+        <v>368</v>
       </c>
       <c r="L12" t="n">
-        <v>8687</v>
+        <v>292</v>
       </c>
       <c r="M12" t="n">
-        <v>8954</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>10773</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>12615</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>12587</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>14027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1241,40 +1240,40 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>32408</v>
+        <v>12363</v>
       </c>
       <c r="G13" t="n">
-        <v>32109</v>
+        <v>15622</v>
       </c>
       <c r="H13" t="n">
-        <v>23123</v>
+        <v>16638</v>
       </c>
       <c r="I13" t="n">
-        <v>8386</v>
+        <v>18492</v>
       </c>
       <c r="J13" t="n">
-        <v>8237</v>
+        <v>22640</v>
       </c>
       <c r="K13" t="n">
-        <v>17296</v>
+        <v>16146</v>
       </c>
       <c r="L13" t="n">
-        <v>25489</v>
+        <v>25706</v>
       </c>
       <c r="M13" t="n">
-        <v>25874</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>28314</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>30275</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>35129</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1304,40 +1303,40 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>8412</v>
+        <v>4728</v>
       </c>
       <c r="G14" t="n">
-        <v>8722</v>
+        <v>4096</v>
       </c>
       <c r="H14" t="n">
-        <v>6944</v>
+        <v>4693</v>
       </c>
       <c r="I14" t="n">
-        <v>1500</v>
+        <v>4176</v>
       </c>
       <c r="J14" t="n">
-        <v>2433</v>
+        <v>4244</v>
       </c>
       <c r="K14" t="n">
-        <v>6298</v>
+        <v>4016</v>
       </c>
       <c r="L14" t="n">
-        <v>5807</v>
+        <v>3975</v>
       </c>
       <c r="M14" t="n">
-        <v>7321</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>8696</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9419</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>8931</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1367,40 +1366,40 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>669</v>
+        <v>403</v>
       </c>
       <c r="G15" t="n">
-        <v>594</v>
+        <v>657</v>
       </c>
       <c r="H15" t="n">
-        <v>574</v>
+        <v>636</v>
       </c>
       <c r="I15" t="n">
-        <v>172</v>
+        <v>601</v>
       </c>
       <c r="J15" t="n">
-        <v>267</v>
+        <v>893</v>
       </c>
       <c r="K15" t="n">
-        <v>552</v>
+        <v>586</v>
       </c>
       <c r="L15" t="n">
-        <v>708</v>
+        <v>439</v>
       </c>
       <c r="M15" t="n">
-        <v>763</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>926</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>922</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>872</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>820</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1430,40 +1429,40 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>249</v>
+        <v>99</v>
       </c>
       <c r="G16" t="n">
-        <v>257</v>
+        <v>135</v>
       </c>
       <c r="H16" t="n">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="I16" t="n">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="J16" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K16" t="n">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="L16" t="n">
-        <v>278</v>
+        <v>86</v>
       </c>
       <c r="M16" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1493,40 +1492,40 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>12360</v>
+        <v>12200</v>
       </c>
       <c r="G17" t="n">
-        <v>15520</v>
+        <v>12543</v>
       </c>
       <c r="H17" t="n">
-        <v>12303</v>
+        <v>13449</v>
       </c>
       <c r="I17" t="n">
-        <v>4154</v>
+        <v>13949</v>
       </c>
       <c r="J17" t="n">
-        <v>4165</v>
+        <v>19048</v>
       </c>
       <c r="K17" t="n">
-        <v>10666</v>
+        <v>16361</v>
       </c>
       <c r="L17" t="n">
-        <v>13900</v>
+        <v>14239</v>
       </c>
       <c r="M17" t="n">
-        <v>15182</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>15812</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>16587</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>17388</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>20257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1556,40 +1555,40 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="G18" t="n">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="H18" t="n">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="I18" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="J18" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K18" t="n">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="L18" t="n">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="M18" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1619,40 +1618,40 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>505</v>
+        <v>336</v>
       </c>
       <c r="G19" t="n">
-        <v>554</v>
+        <v>364</v>
       </c>
       <c r="H19" t="n">
-        <v>450</v>
+        <v>338</v>
       </c>
       <c r="I19" t="n">
-        <v>140</v>
+        <v>259</v>
       </c>
       <c r="J19" t="n">
-        <v>171</v>
+        <v>297</v>
       </c>
       <c r="K19" t="n">
-        <v>579</v>
+        <v>248</v>
       </c>
       <c r="L19" t="n">
-        <v>634</v>
+        <v>262</v>
       </c>
       <c r="M19" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1682,40 +1681,40 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>653</v>
+        <v>434</v>
       </c>
       <c r="G20" t="n">
-        <v>710</v>
+        <v>316</v>
       </c>
       <c r="H20" t="n">
-        <v>619</v>
+        <v>459</v>
       </c>
       <c r="I20" t="n">
-        <v>184</v>
+        <v>345</v>
       </c>
       <c r="J20" t="n">
-        <v>227</v>
+        <v>404</v>
       </c>
       <c r="K20" t="n">
-        <v>739</v>
+        <v>491</v>
       </c>
       <c r="L20" t="n">
-        <v>745</v>
+        <v>347</v>
       </c>
       <c r="M20" t="n">
-        <v>601</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>569</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>541</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1745,40 +1744,40 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>6356</v>
+        <v>2519</v>
       </c>
       <c r="G21" t="n">
-        <v>7590</v>
+        <v>2289</v>
       </c>
       <c r="H21" t="n">
-        <v>5578</v>
+        <v>3419</v>
       </c>
       <c r="I21" t="n">
-        <v>1229</v>
+        <v>3066</v>
       </c>
       <c r="J21" t="n">
-        <v>1263</v>
+        <v>5461</v>
       </c>
       <c r="K21" t="n">
-        <v>3227</v>
+        <v>4716</v>
       </c>
       <c r="L21" t="n">
-        <v>3469</v>
+        <v>5568</v>
       </c>
       <c r="M21" t="n">
-        <v>4214</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>5163</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>4890</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>4782</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>5179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1808,40 +1807,40 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>974</v>
+        <v>3633</v>
       </c>
       <c r="G22" t="n">
-        <v>878</v>
+        <v>2349</v>
       </c>
       <c r="H22" t="n">
-        <v>652</v>
+        <v>2760</v>
       </c>
       <c r="I22" t="n">
-        <v>136</v>
+        <v>2099</v>
       </c>
       <c r="J22" t="n">
-        <v>222</v>
+        <v>3925</v>
       </c>
       <c r="K22" t="n">
-        <v>616</v>
+        <v>4570</v>
       </c>
       <c r="L22" t="n">
-        <v>850</v>
+        <v>3121</v>
       </c>
       <c r="M22" t="n">
-        <v>839</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>983</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1449</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1871,40 +1870,40 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1491</v>
+        <v>2285</v>
       </c>
       <c r="G23" t="n">
-        <v>1712</v>
+        <v>1629</v>
       </c>
       <c r="H23" t="n">
-        <v>972</v>
+        <v>883</v>
       </c>
       <c r="I23" t="n">
-        <v>328</v>
+        <v>575</v>
       </c>
       <c r="J23" t="n">
-        <v>426</v>
+        <v>1592</v>
       </c>
       <c r="K23" t="n">
-        <v>1060</v>
+        <v>3680</v>
       </c>
       <c r="L23" t="n">
-        <v>1185</v>
+        <v>828</v>
       </c>
       <c r="M23" t="n">
-        <v>998</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>852</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>862</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1036</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1934,40 +1933,40 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>13630</v>
+        <v>6456</v>
       </c>
       <c r="G24" t="n">
-        <v>13274</v>
+        <v>8687</v>
       </c>
       <c r="H24" t="n">
-        <v>10808</v>
+        <v>7499</v>
       </c>
       <c r="I24" t="n">
-        <v>3831</v>
+        <v>7042</v>
       </c>
       <c r="J24" t="n">
-        <v>4222</v>
+        <v>5727</v>
       </c>
       <c r="K24" t="n">
-        <v>9245</v>
+        <v>9569</v>
       </c>
       <c r="L24" t="n">
-        <v>10399</v>
+        <v>8951</v>
       </c>
       <c r="M24" t="n">
-        <v>6456</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>10859</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>11825</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>11639</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>13828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1997,40 +1996,40 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>11804</v>
+        <v>7066</v>
       </c>
       <c r="G25" t="n">
-        <v>11641</v>
+        <v>10913</v>
       </c>
       <c r="H25" t="n">
-        <v>8856</v>
+        <v>13022</v>
       </c>
       <c r="I25" t="n">
-        <v>3029</v>
+        <v>12244</v>
       </c>
       <c r="J25" t="n">
-        <v>3200</v>
+        <v>13218</v>
       </c>
       <c r="K25" t="n">
-        <v>5954</v>
+        <v>12617</v>
       </c>
       <c r="L25" t="n">
-        <v>7766</v>
+        <v>12621</v>
       </c>
       <c r="M25" t="n">
-        <v>8861</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>9780</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>10501</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>11762</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>12331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2060,40 +2059,40 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="G26" t="n">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="H26" t="n">
+        <v>35</v>
+      </c>
+      <c r="I26" t="n">
         <v>59</v>
       </c>
-      <c r="I26" t="n">
-        <v>13</v>
-      </c>
       <c r="J26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K26" t="n">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="L26" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="M26" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2123,40 +2122,40 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>24639</v>
+        <v>10949</v>
       </c>
       <c r="G27" t="n">
-        <v>26511</v>
+        <v>11012</v>
       </c>
       <c r="H27" t="n">
-        <v>21143</v>
+        <v>12419</v>
       </c>
       <c r="I27" t="n">
-        <v>5607</v>
+        <v>9357</v>
       </c>
       <c r="J27" t="n">
-        <v>7290</v>
+        <v>22792</v>
       </c>
       <c r="K27" t="n">
-        <v>19027</v>
+        <v>23969</v>
       </c>
       <c r="L27" t="n">
-        <v>27405</v>
+        <v>25028</v>
       </c>
       <c r="M27" t="n">
-        <v>29625</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>29776</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>30611</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>31022</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>33458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2186,40 +2185,40 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1433</v>
+        <v>903</v>
       </c>
       <c r="G28" t="n">
-        <v>1615</v>
+        <v>943</v>
       </c>
       <c r="H28" t="n">
-        <v>1131</v>
+        <v>1155</v>
       </c>
       <c r="I28" t="n">
-        <v>428</v>
+        <v>1244</v>
       </c>
       <c r="J28" t="n">
-        <v>557</v>
+        <v>1295</v>
       </c>
       <c r="K28" t="n">
-        <v>1285</v>
+        <v>962</v>
       </c>
       <c r="L28" t="n">
-        <v>1380</v>
+        <v>1101</v>
       </c>
       <c r="M28" t="n">
-        <v>1403</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1894</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1983</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2240,49 +2239,49 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Caoa (Hyundai)</t>
+          <t>Caoa - Hyundai</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Caoa (Hyundai)</t>
+          <t>Caoa - Hyundai</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>396</v>
+        <v>112</v>
       </c>
       <c r="G29" t="n">
-        <v>429</v>
+        <v>145</v>
       </c>
       <c r="H29" t="n">
-        <v>379</v>
+        <v>147</v>
       </c>
       <c r="I29" t="n">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="J29" t="n">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="K29" t="n">
-        <v>368</v>
+        <v>36</v>
       </c>
       <c r="L29" t="n">
-        <v>492</v>
+        <v>26</v>
       </c>
       <c r="M29" t="n">
-        <v>443</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>293</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2312,28 +2311,28 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2375,40 +2374,40 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>12115</v>
+        <v>11815</v>
       </c>
       <c r="G31" t="n">
-        <v>11482</v>
+        <v>12604</v>
       </c>
       <c r="H31" t="n">
-        <v>10136</v>
+        <v>14376</v>
       </c>
       <c r="I31" t="n">
-        <v>3874</v>
+        <v>14166</v>
       </c>
       <c r="J31" t="n">
-        <v>4437</v>
+        <v>19231</v>
       </c>
       <c r="K31" t="n">
-        <v>8066</v>
+        <v>16257</v>
       </c>
       <c r="L31" t="n">
-        <v>12601</v>
+        <v>17009</v>
       </c>
       <c r="M31" t="n">
-        <v>15951</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>19839</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>19049</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>18981</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>19426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2438,40 +2437,40 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1642</v>
+        <v>1262</v>
       </c>
       <c r="G32" t="n">
-        <v>1323</v>
+        <v>853</v>
       </c>
       <c r="H32" t="n">
-        <v>1560</v>
+        <v>1085</v>
       </c>
       <c r="I32" t="n">
-        <v>1072</v>
+        <v>1470</v>
       </c>
       <c r="J32" t="n">
-        <v>1400</v>
+        <v>1547</v>
       </c>
       <c r="K32" t="n">
-        <v>1737</v>
+        <v>1693</v>
       </c>
       <c r="L32" t="n">
-        <v>1733</v>
+        <v>1005</v>
       </c>
       <c r="M32" t="n">
-        <v>1282</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1686</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1702</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2323</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>2404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2501,40 +2500,40 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2675</v>
+        <v>741</v>
       </c>
       <c r="G33" t="n">
-        <v>2039</v>
+        <v>2263</v>
       </c>
       <c r="H33" t="n">
-        <v>2378</v>
+        <v>2568</v>
       </c>
       <c r="I33" t="n">
-        <v>1622</v>
+        <v>2740</v>
       </c>
       <c r="J33" t="n">
-        <v>1732</v>
+        <v>2720</v>
       </c>
       <c r="K33" t="n">
-        <v>2463</v>
+        <v>2972</v>
       </c>
       <c r="L33" t="n">
-        <v>2562</v>
+        <v>2235</v>
       </c>
       <c r="M33" t="n">
-        <v>2917</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>3469</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>3801</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>4093</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>3569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2564,40 +2563,40 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>622</v>
+        <v>826</v>
       </c>
       <c r="G34" t="n">
-        <v>650</v>
+        <v>794</v>
       </c>
       <c r="H34" t="n">
-        <v>713</v>
+        <v>1094</v>
       </c>
       <c r="I34" t="n">
-        <v>432</v>
+        <v>1055</v>
       </c>
       <c r="J34" t="n">
-        <v>601</v>
+        <v>1819</v>
       </c>
       <c r="K34" t="n">
-        <v>606</v>
+        <v>1654</v>
       </c>
       <c r="L34" t="n">
-        <v>1246</v>
+        <v>1794</v>
       </c>
       <c r="M34" t="n">
-        <v>927</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1087</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1009</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>901</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2627,40 +2626,40 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G35" t="n">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="H35" t="n">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="I35" t="n">
-        <v>43</v>
+        <v>372</v>
       </c>
       <c r="J35" t="n">
-        <v>54</v>
+        <v>337</v>
       </c>
       <c r="K35" t="n">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="L35" t="n">
-        <v>393</v>
+        <v>324</v>
       </c>
       <c r="M35" t="n">
-        <v>452</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>458</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2693,16 +2692,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -2753,40 +2752,40 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>231</v>
+        <v>172</v>
       </c>
       <c r="G37" t="n">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="H37" t="n">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="I37" t="n">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="J37" t="n">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="K37" t="n">
-        <v>395</v>
+        <v>154</v>
       </c>
       <c r="L37" t="n">
-        <v>438</v>
+        <v>185</v>
       </c>
       <c r="M37" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2816,40 +2815,40 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>978</v>
+        <v>439</v>
       </c>
       <c r="G38" t="n">
-        <v>898</v>
+        <v>371</v>
       </c>
       <c r="H38" t="n">
-        <v>660</v>
+        <v>581</v>
       </c>
       <c r="I38" t="n">
-        <v>213</v>
+        <v>466</v>
       </c>
       <c r="J38" t="n">
-        <v>264</v>
+        <v>551</v>
       </c>
       <c r="K38" t="n">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="L38" t="n">
-        <v>771</v>
+        <v>489</v>
       </c>
       <c r="M38" t="n">
-        <v>626</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>708</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>762</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>606</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2879,40 +2878,40 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>673</v>
+        <v>950</v>
       </c>
       <c r="G39" t="n">
-        <v>765</v>
+        <v>582</v>
       </c>
       <c r="H39" t="n">
-        <v>580</v>
+        <v>618</v>
       </c>
       <c r="I39" t="n">
-        <v>501</v>
+        <v>338</v>
       </c>
       <c r="J39" t="n">
-        <v>349</v>
+        <v>721</v>
       </c>
       <c r="K39" t="n">
-        <v>708</v>
+        <v>794</v>
       </c>
       <c r="L39" t="n">
-        <v>612</v>
+        <v>743</v>
       </c>
       <c r="M39" t="n">
-        <v>561</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>693</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>945</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>735</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2942,40 +2941,40 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>318</v>
+        <v>447</v>
       </c>
       <c r="G40" t="n">
-        <v>373</v>
+        <v>317</v>
       </c>
       <c r="H40" t="n">
-        <v>232</v>
+        <v>340</v>
       </c>
       <c r="I40" t="n">
-        <v>90</v>
+        <v>267</v>
       </c>
       <c r="J40" t="n">
-        <v>93</v>
+        <v>522</v>
       </c>
       <c r="K40" t="n">
-        <v>184</v>
+        <v>439</v>
       </c>
       <c r="L40" t="n">
-        <v>294</v>
+        <v>367</v>
       </c>
       <c r="M40" t="n">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3005,40 +3004,40 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G41" t="n">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H41" t="n">
-        <v>170</v>
+        <v>294</v>
       </c>
       <c r="I41" t="n">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="J41" t="n">
-        <v>110</v>
+        <v>390</v>
       </c>
       <c r="K41" t="n">
-        <v>116</v>
+        <v>290</v>
       </c>
       <c r="L41" t="n">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="M41" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3068,40 +3067,40 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1800</v>
+        <v>2068</v>
       </c>
       <c r="G42" t="n">
-        <v>1171</v>
+        <v>1039</v>
       </c>
       <c r="H42" t="n">
-        <v>705</v>
+        <v>878</v>
       </c>
       <c r="I42" t="n">
-        <v>405</v>
+        <v>1125</v>
       </c>
       <c r="J42" t="n">
-        <v>290</v>
+        <v>1556</v>
       </c>
       <c r="K42" t="n">
-        <v>561</v>
+        <v>1592</v>
       </c>
       <c r="L42" t="n">
-        <v>873</v>
+        <v>2306</v>
       </c>
       <c r="M42" t="n">
-        <v>573</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1119</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1489</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1174</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>1405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3131,40 +3130,40 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3311</v>
+        <v>2914</v>
       </c>
       <c r="G43" t="n">
-        <v>3127</v>
+        <v>2607</v>
       </c>
       <c r="H43" t="n">
-        <v>2971</v>
+        <v>3972</v>
       </c>
       <c r="I43" t="n">
-        <v>1762</v>
+        <v>4070</v>
       </c>
       <c r="J43" t="n">
-        <v>1445</v>
+        <v>4147</v>
       </c>
       <c r="K43" t="n">
-        <v>1714</v>
+        <v>3844</v>
       </c>
       <c r="L43" t="n">
-        <v>2329</v>
+        <v>4126</v>
       </c>
       <c r="M43" t="n">
-        <v>2691</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>3579</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>3122</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>3050</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>3306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3194,40 +3193,40 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4608</v>
+        <v>2134</v>
       </c>
       <c r="G44" t="n">
-        <v>4826</v>
+        <v>767</v>
       </c>
       <c r="H44" t="n">
-        <v>3812</v>
+        <v>341</v>
       </c>
       <c r="I44" t="n">
-        <v>1605</v>
+        <v>144</v>
       </c>
       <c r="J44" t="n">
-        <v>1402</v>
+        <v>1504</v>
       </c>
       <c r="K44" t="n">
-        <v>2456</v>
+        <v>838</v>
       </c>
       <c r="L44" t="n">
-        <v>3637</v>
+        <v>2387</v>
       </c>
       <c r="M44" t="n">
-        <v>4143</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>3890</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>3677</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>3322</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>4218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -3257,40 +3256,40 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="G45" t="n">
-        <v>282</v>
+        <v>217</v>
       </c>
       <c r="H45" t="n">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="I45" t="n">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="J45" t="n">
-        <v>97</v>
+        <v>421</v>
       </c>
       <c r="K45" t="n">
-        <v>238</v>
+        <v>360</v>
       </c>
       <c r="L45" t="n">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="M45" t="n">
-        <v>434</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -3332,13 +3331,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -3353,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -3383,40 +3382,40 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="G47" t="n">
+        <v>48</v>
+      </c>
+      <c r="H47" t="n">
+        <v>59</v>
+      </c>
+      <c r="I47" t="n">
         <v>86</v>
       </c>
-      <c r="H47" t="n">
-        <v>15</v>
-      </c>
-      <c r="I47" t="n">
-        <v>64</v>
-      </c>
       <c r="J47" t="n">
-        <v>124</v>
+        <v>193</v>
       </c>
       <c r="K47" t="n">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="L47" t="n">
-        <v>105</v>
+        <v>337</v>
       </c>
       <c r="M47" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -3446,28 +3445,28 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
         <v>1</v>
       </c>
-      <c r="K48" t="n">
-        <v>2</v>
-      </c>
-      <c r="L48" t="n">
-        <v>2</v>
-      </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3476,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
@@ -3509,40 +3508,40 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="G49" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="H49" t="n">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="I49" t="n">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="J49" t="n">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="K49" t="n">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="L49" t="n">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="M49" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -3572,40 +3571,40 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G50" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H50" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I50" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J50" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="K50" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="L50" t="n">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="M50" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -3635,40 +3634,40 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="G51" t="n">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="H51" t="n">
-        <v>120</v>
+        <v>239</v>
       </c>
       <c r="I51" t="n">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="J51" t="n">
-        <v>92</v>
+        <v>254</v>
       </c>
       <c r="K51" t="n">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="L51" t="n">
-        <v>291</v>
+        <v>201</v>
       </c>
       <c r="M51" t="n">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -3698,40 +3697,40 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G52" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>4</v>
       </c>
       <c r="J52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K52" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L52" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="M52" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -3761,37 +3760,37 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K53" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M53" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
@@ -3827,37 +3826,37 @@
         <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K54" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -3887,40 +3886,40 @@
         </is>
       </c>
       <c r="F55" t="n">
+        <v>3</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5</v>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+      <c r="I55" t="n">
         <v>2</v>
       </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -3950,40 +3949,40 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G56" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H56" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="J56" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K56" t="n">
+        <v>21</v>
+      </c>
+      <c r="L56" t="n">
         <v>14</v>
       </c>
-      <c r="L56" t="n">
-        <v>11</v>
-      </c>
       <c r="M56" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -4013,40 +4012,40 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="G57" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L57" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -4076,40 +4075,40 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G58" t="n">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="H58" t="n">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="I58" t="n">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="J58" t="n">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="K58" t="n">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="L58" t="n">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="M58" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -4139,40 +4138,40 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="G59" t="n">
-        <v>280</v>
+        <v>193</v>
       </c>
       <c r="H59" t="n">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="I59" t="n">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="J59" t="n">
-        <v>157</v>
+        <v>321</v>
       </c>
       <c r="K59" t="n">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="L59" t="n">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="M59" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -4202,40 +4201,40 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>388</v>
+        <v>467</v>
       </c>
       <c r="G60" t="n">
-        <v>422</v>
+        <v>484</v>
       </c>
       <c r="H60" t="n">
-        <v>346</v>
+        <v>492</v>
       </c>
       <c r="I60" t="n">
-        <v>172</v>
+        <v>408</v>
       </c>
       <c r="J60" t="n">
-        <v>256</v>
+        <v>440</v>
       </c>
       <c r="K60" t="n">
-        <v>445</v>
+        <v>530</v>
       </c>
       <c r="L60" t="n">
-        <v>375</v>
+        <v>506</v>
       </c>
       <c r="M60" t="n">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>473</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -4265,40 +4264,40 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -4328,25 +4327,25 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -4358,10 +4357,10 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -4454,40 +4453,40 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M64" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -4517,40 +4516,40 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="G65" t="n">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="H65" t="n">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="I65" t="n">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="J65" t="n">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="K65" t="n">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="L65" t="n">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="M65" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -4580,40 +4579,40 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>453</v>
+        <v>521</v>
       </c>
       <c r="G66" t="n">
-        <v>483</v>
+        <v>659</v>
       </c>
       <c r="H66" t="n">
-        <v>485</v>
+        <v>770</v>
       </c>
       <c r="I66" t="n">
-        <v>289</v>
+        <v>800</v>
       </c>
       <c r="J66" t="n">
-        <v>363</v>
+        <v>601</v>
       </c>
       <c r="K66" t="n">
-        <v>716</v>
+        <v>695</v>
       </c>
       <c r="L66" t="n">
-        <v>661</v>
+        <v>631</v>
       </c>
       <c r="M66" t="n">
-        <v>611</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>507</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>565</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -4643,40 +4642,40 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="G67" t="n">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="H67" t="n">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="I67" t="n">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="J67" t="n">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="K67" t="n">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="L67" t="n">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="M67" t="n">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -4706,25 +4705,25 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -4733,10 +4732,10 @@
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
@@ -4832,25 +4831,25 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -4895,40 +4894,40 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M71" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -4958,40 +4957,40 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>90</v>
+        <v>282</v>
       </c>
       <c r="G72" t="n">
-        <v>104</v>
+        <v>329</v>
       </c>
       <c r="H72" t="n">
-        <v>92</v>
+        <v>403</v>
       </c>
       <c r="I72" t="n">
-        <v>73</v>
+        <v>334</v>
       </c>
       <c r="J72" t="n">
-        <v>95</v>
+        <v>514</v>
       </c>
       <c r="K72" t="n">
-        <v>188</v>
+        <v>404</v>
       </c>
       <c r="L72" t="n">
-        <v>194</v>
+        <v>365</v>
       </c>
       <c r="M72" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -5021,40 +5020,40 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>683</v>
+        <v>969</v>
       </c>
       <c r="G73" t="n">
-        <v>636</v>
+        <v>995</v>
       </c>
       <c r="H73" t="n">
-        <v>829</v>
+        <v>1384</v>
       </c>
       <c r="I73" t="n">
-        <v>554</v>
+        <v>1140</v>
       </c>
       <c r="J73" t="n">
-        <v>641</v>
+        <v>1367</v>
       </c>
       <c r="K73" t="n">
-        <v>1011</v>
+        <v>1180</v>
       </c>
       <c r="L73" t="n">
-        <v>1006</v>
+        <v>1362</v>
       </c>
       <c r="M73" t="n">
-        <v>1170</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>1052</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>1140</v>
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>1264</v>
+        <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>1323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -5084,40 +5083,40 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>593</v>
+        <v>622</v>
       </c>
       <c r="G74" t="n">
-        <v>697</v>
+        <v>630</v>
       </c>
       <c r="H74" t="n">
-        <v>517</v>
+        <v>694</v>
       </c>
       <c r="I74" t="n">
-        <v>331</v>
+        <v>533</v>
       </c>
       <c r="J74" t="n">
-        <v>368</v>
+        <v>662</v>
       </c>
       <c r="K74" t="n">
-        <v>665</v>
+        <v>583</v>
       </c>
       <c r="L74" t="n">
-        <v>724</v>
+        <v>742</v>
       </c>
       <c r="M74" t="n">
-        <v>582</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>603</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>685</v>
+        <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>808</v>
+        <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -5150,25 +5149,25 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
         <v>1</v>
       </c>
-      <c r="I75" t="n">
-        <v>2</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3</v>
-      </c>
       <c r="M75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -5177,10 +5176,10 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -5210,40 +5209,40 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>215</v>
+        <v>337</v>
       </c>
       <c r="G76" t="n">
-        <v>142</v>
+        <v>309</v>
       </c>
       <c r="H76" t="n">
-        <v>158</v>
+        <v>464</v>
       </c>
       <c r="I76" t="n">
-        <v>108</v>
+        <v>401</v>
       </c>
       <c r="J76" t="n">
-        <v>168</v>
+        <v>431</v>
       </c>
       <c r="K76" t="n">
-        <v>207</v>
+        <v>488</v>
       </c>
       <c r="L76" t="n">
-        <v>230</v>
+        <v>479</v>
       </c>
       <c r="M76" t="n">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -5273,13 +5272,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -5288,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -5306,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -5336,40 +5335,40 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>359</v>
+        <v>527</v>
       </c>
       <c r="G78" t="n">
-        <v>289</v>
+        <v>334</v>
       </c>
       <c r="H78" t="n">
-        <v>237</v>
+        <v>463</v>
       </c>
       <c r="I78" t="n">
-        <v>175</v>
+        <v>543</v>
       </c>
       <c r="J78" t="n">
-        <v>205</v>
+        <v>543</v>
       </c>
       <c r="K78" t="n">
-        <v>465</v>
+        <v>547</v>
       </c>
       <c r="L78" t="n">
-        <v>465</v>
+        <v>604</v>
       </c>
       <c r="M78" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -5399,37 +5398,37 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L79" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79" t="n">
         <v>0</v>
@@ -5462,40 +5461,40 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>125</v>
+        <v>299</v>
       </c>
       <c r="G80" t="n">
-        <v>96</v>
+        <v>253</v>
       </c>
       <c r="H80" t="n">
-        <v>59</v>
+        <v>241</v>
       </c>
       <c r="I80" t="n">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="J80" t="n">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="K80" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="L80" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M80" t="n">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -5525,40 +5524,40 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>264</v>
+        <v>5</v>
       </c>
       <c r="I81" t="n">
-        <v>172</v>
+        <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>857</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>441</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -5588,25 +5587,25 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>862</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>747</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
@@ -5651,40 +5650,40 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1124</v>
+        <v>887</v>
       </c>
       <c r="G83" t="n">
-        <v>836</v>
+        <v>763</v>
       </c>
       <c r="H83" t="n">
-        <v>872</v>
+        <v>1106</v>
       </c>
       <c r="I83" t="n">
-        <v>525</v>
+        <v>1113</v>
       </c>
       <c r="J83" t="n">
-        <v>557</v>
+        <v>1253</v>
       </c>
       <c r="K83" t="n">
-        <v>1256</v>
+        <v>1269</v>
       </c>
       <c r="L83" t="n">
-        <v>1743</v>
+        <v>1611</v>
       </c>
       <c r="M83" t="n">
-        <v>1368</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>1051</v>
+        <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>1161</v>
+        <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>1425</v>
+        <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>1278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -5714,40 +5713,40 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>557</v>
+        <v>683</v>
       </c>
       <c r="G84" t="n">
-        <v>623</v>
+        <v>502</v>
       </c>
       <c r="H84" t="n">
-        <v>704</v>
+        <v>648</v>
       </c>
       <c r="I84" t="n">
-        <v>297</v>
+        <v>803</v>
       </c>
       <c r="J84" t="n">
-        <v>499</v>
+        <v>729</v>
       </c>
       <c r="K84" t="n">
-        <v>933</v>
+        <v>1104</v>
       </c>
       <c r="L84" t="n">
-        <v>834</v>
+        <v>1157</v>
       </c>
       <c r="M84" t="n">
-        <v>517</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>565</v>
+        <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>832</v>
+        <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>1319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -5777,40 +5776,40 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1295</v>
+        <v>1389</v>
       </c>
       <c r="G85" t="n">
-        <v>909</v>
+        <v>1211</v>
       </c>
       <c r="H85" t="n">
-        <v>1208</v>
+        <v>1507</v>
       </c>
       <c r="I85" t="n">
-        <v>627</v>
+        <v>1442</v>
       </c>
       <c r="J85" t="n">
-        <v>688</v>
+        <v>1523</v>
       </c>
       <c r="K85" t="n">
-        <v>1226</v>
+        <v>1746</v>
       </c>
       <c r="L85" t="n">
-        <v>1131</v>
+        <v>1671</v>
       </c>
       <c r="M85" t="n">
-        <v>914</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>933</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>1051</v>
+        <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>1248</v>
+        <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>1525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -5849,13 +5848,13 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>1</v>
@@ -5867,13 +5866,13 @@
         <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -5894,49 +5893,49 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Agrale</t>
+          <t>AGRALE</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Agrale</t>
+          <t>AGRALE</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>213</v>
+        <v>280</v>
       </c>
       <c r="G87" t="n">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="H87" t="n">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="I87" t="n">
-        <v>53</v>
+        <v>262</v>
       </c>
       <c r="J87" t="n">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="K87" t="n">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="L87" t="n">
-        <v>185</v>
+        <v>295</v>
       </c>
       <c r="M87" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -5957,49 +5956,49 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Iveco</t>
+          <t>IVECO</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Iveco</t>
+          <t>IVECO</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G88" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H88" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I88" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J88" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="K88" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L88" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M88" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -6029,40 +6028,40 @@
         </is>
       </c>
       <c r="F89" t="n">
+        <v>238</v>
+      </c>
+      <c r="G89" t="n">
+        <v>263</v>
+      </c>
+      <c r="H89" t="n">
+        <v>293</v>
+      </c>
+      <c r="I89" t="n">
         <v>270</v>
       </c>
-      <c r="G89" t="n">
-        <v>289</v>
-      </c>
-      <c r="H89" t="n">
-        <v>189</v>
-      </c>
-      <c r="I89" t="n">
-        <v>118</v>
-      </c>
       <c r="J89" t="n">
-        <v>175</v>
+        <v>408</v>
       </c>
       <c r="K89" t="n">
-        <v>205</v>
+        <v>387</v>
       </c>
       <c r="L89" t="n">
-        <v>496</v>
+        <v>409</v>
       </c>
       <c r="M89" t="n">
-        <v>692</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>547</v>
+        <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -6083,49 +6082,49 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Mercedes-Benz</t>
+          <t>MERCEDES-BENZ</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Mercedes-Benz</t>
+          <t>MERCEDES-BENZ</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>853</v>
+        <v>435</v>
       </c>
       <c r="G90" t="n">
-        <v>745</v>
+        <v>421</v>
       </c>
       <c r="H90" t="n">
-        <v>477</v>
+        <v>765</v>
       </c>
       <c r="I90" t="n">
-        <v>99</v>
+        <v>540</v>
       </c>
       <c r="J90" t="n">
-        <v>347</v>
+        <v>728</v>
       </c>
       <c r="K90" t="n">
-        <v>644</v>
+        <v>741</v>
       </c>
       <c r="L90" t="n">
-        <v>731</v>
+        <v>430</v>
       </c>
       <c r="M90" t="n">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>610</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>538</v>
+        <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>491</v>
+        <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -6146,49 +6145,49 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Scania</t>
+          <t>SCANIA</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Scania</t>
+          <t>SCANIA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="G91" t="n">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="H91" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I91" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J91" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K91" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L91" t="n">
         <v>33</v>
       </c>
       <c r="M91" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -6209,49 +6208,49 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Volvo</t>
+          <t>VOLVO</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Volvo</t>
+          <t>VOLVO</t>
         </is>
       </c>
       <c r="F92" t="n">
         <v>53</v>
       </c>
       <c r="G92" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="H92" t="n">
+        <v>38</v>
+      </c>
+      <c r="I92" t="n">
+        <v>17</v>
+      </c>
+      <c r="J92" t="n">
+        <v>59</v>
+      </c>
+      <c r="K92" t="n">
+        <v>36</v>
+      </c>
+      <c r="L92" t="n">
         <v>31</v>
       </c>
-      <c r="I92" t="n">
-        <v>16</v>
-      </c>
-      <c r="J92" t="n">
-        <v>41</v>
-      </c>
-      <c r="K92" t="n">
-        <v>35</v>
-      </c>
-      <c r="L92" t="n">
-        <v>50</v>
-      </c>
       <c r="M92" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -6281,40 +6280,40 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="G93" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H93" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="K93" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M93" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
